--- a/docs/Files/ODYM_Tutorial5_VehicleLifetime.xlsx
+++ b/docs/Files/ODYM_Tutorial5_VehicleLifetime.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13692" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="5378"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Values_Master" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1104,19 +1104,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>76</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>65</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>67</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>72</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="C16" s="5"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="C17" s="5"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="C18" s="5"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="C19" s="5"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="C20" s="5"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
         <v>219</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>220</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>221</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>222</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C27" s="18" t="s">
         <v>20</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="F27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1520,25 +1520,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>223</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>223</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>223</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>223</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="L27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="L28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>223</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="L29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="L30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="L31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>223</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="L32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="L33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="L34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="L35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>223</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="L36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="L37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="L38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>223</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="L39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>223</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="L40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>223</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="L41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>223</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>223</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>223</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>223</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>223</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>223</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>223</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>223</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>223</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>223</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>223</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>223</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>223</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>223</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>223</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>223</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>223</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>223</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>223</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>223</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>223</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>223</v>
       </c>
@@ -5490,1741 +5490,1741 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="D421" s="4"/>
